--- a/data/ready_stocks/galtex-wb-stocks-updated.xlsx
+++ b/data/ready_stocks/galtex-wb-stocks-updated.xlsx
@@ -397,13 +397,558 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Баркод</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Количество</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>2044249666984</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2044249667004</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>2044249667011</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>2044249667028</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>2044249667035</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>2044249667059</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>2044249667073</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>2044249667097</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>2044249667103</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>2044249667127</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>2044249667240</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>2044249667257</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>2044249667271</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>2044249667288</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>2044249667318</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>2044249667325</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>2044249667349</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>2044249667417</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>2044249667431</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>2044249667448</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>2044249667486</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>2044249667493</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>2044249667509</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>2044249667530</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>2044249667547</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>2044249667554</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>2044249667561</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>2044249667578</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>2044249667585</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>2044249667592</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>2044249667806</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>2044249667813</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>2044249667820</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>2044249667837</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>2044249667868</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>2044249667967</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>2044249667974</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>2044249667981</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>2044249667998</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>2044249668001</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>2044249668650</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>2044249668667</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>2044249668674</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>2044249668773</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>2044249668889</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>2044249668896</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>2044249668902</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>2044249668919</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>2044249669022</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>2044249669046</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>2044249669275</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>2044249669282</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>2044249669299</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>2044249669305</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>2044249669312</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>2044249669329</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>2044249669336</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>2044249669343</v>
+      </c>
+      <c r="B59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>2044249669350</v>
+      </c>
+      <c r="B60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>2044249669367</v>
+      </c>
+      <c r="B61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>2044249669398</v>
+      </c>
+      <c r="B62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>2044249669404</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>2044249669428</v>
+      </c>
+      <c r="B64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>2044249669435</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>2044249669442</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>2044249669541</v>
+      </c>
+      <c r="B67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>2044249669558</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B68"/>
   </ignoredErrors>
 </worksheet>
 </file>